--- a/data/NP20versusRestIncomeTrendsMNA.xlsx
+++ b/data/NP20versusRestIncomeTrendsMNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67496567-774C-4471-97AA-7783D62EB38F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04AB5148-1508-4B06-A8AA-7F4291E99CEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="8" activeTab="11" xr2:uid="{263B916C-C188-4016-A033-35A45C2316BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="8" activeTab="11" xr2:uid="{F79202DD-308F-45FF-9DE5-32B85DEA2E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Algeria" sheetId="2" r:id="rId1"/>
@@ -163,7 +163,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204B95F2-534C-4B61-BB94-33389275D6D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24EAC8F2-6F55-48E3-B14A-6C30C033E78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -221,7 +221,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60D1677-2F97-40B9-88EE-6602FA3B317C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6870AB8E-6A7A-483E-A8C4-217A16CEA8B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -279,7 +279,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E194C3-0B9E-4C8E-AF8A-0E4FC212ED17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE7D91B-2BCF-40B4-8052-D8AE935659D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -337,7 +337,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B508A7DD-5141-477D-9A3E-92A369298F35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B858A851-D8BF-406A-A8DE-9E45AAFE5E48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -395,7 +395,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6839D4-6D84-4E05-9C4A-B20A3D134FF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E581C3-950E-43C9-A317-12E4599617DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -453,7 +453,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF71471-C1CE-4C75-BFF0-9200A482C9BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE74702-E06A-4D62-980D-CE7FCBE61D53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -511,7 +511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AACB1BC-C949-4EC2-A232-F6210C6D7729}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0793E11-B73F-42DF-9534-2CA22F707F33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -569,7 +569,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2422F1F6-1366-49F9-9C74-0D13BDD33CA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F712E90B-A10E-4CC0-8433-B8D18BC9591C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -627,7 +627,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D7D1DF-4CB0-4EBC-B1C9-42206CFEB60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F47289F-84C0-4892-8FBD-21E457C0DCCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -685,7 +685,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A575D6-6D27-4A2E-8D8C-F8997EFB7636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22A51FD-95E8-47F4-8269-2D34AA02151D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,7 +743,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8001AD2-0584-4016-8178-5E0E56895365}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE76933-F413-4F2F-872A-3ED820EBFE61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -801,7 +801,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9E3E4E-1CFC-472B-A781-AAB1E58B91B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DED164A-A871-4404-8EB7-622B81345B1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F924EE73-AAB5-4D0B-84EA-C3D4E09BA9D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919E4DFC-473F-49FC-AE6B-B2C77B39EC26}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1161,10 +1161,10 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>0.17122449100000001</v>
+        <v>2.5612244909999999</v>
       </c>
       <c r="K2">
-        <v>9.7490952471130097</v>
+        <v>9.1515952471130095</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -1175,10 +1175,10 @@
         <v>4</v>
       </c>
       <c r="J3">
-        <v>0.32231131750000003</v>
+        <v>2.6623113174999999</v>
       </c>
       <c r="K3">
-        <v>10.0978139514469</v>
+        <v>9.5128139514469208</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -1189,10 +1189,10 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>0.54582493600000004</v>
+        <v>2.265824936</v>
       </c>
       <c r="K4">
-        <v>8.4307876016164407</v>
+        <v>8.0007876016164392</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -1203,10 +1203,10 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>0.52117699200000001</v>
+        <v>2.4211769919999999</v>
       </c>
       <c r="K5">
-        <v>9.1261934232328805</v>
+        <v>8.6511934232328809</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -1217,10 +1217,10 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>0.61977217500000004</v>
+        <v>2.1497721749999998</v>
       </c>
       <c r="K6">
-        <v>7.73864051789384</v>
+        <v>7.3561405178938397</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>0.79605184200000001</v>
+        <v>2.1060518419999998</v>
       </c>
       <c r="K7">
-        <v>7.2691212860753396</v>
+        <v>6.9416212860753399</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -1245,10 +1245,10 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <v>0.81079334349999999</v>
+        <v>2.1507933435000002</v>
       </c>
       <c r="K8">
-        <v>7.0299893353578797</v>
+        <v>6.6949893353578798</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -1259,10 +1259,10 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>0.80246705250000006</v>
+        <v>2.4624670525000001</v>
       </c>
       <c r="K9">
-        <v>7.6959667985188398</v>
+        <v>7.2809667985188398</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -1273,10 +1273,10 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <v>0.94695641799999997</v>
+        <v>2.826956418</v>
       </c>
       <c r="K10">
-        <v>8.3247554160479407</v>
+        <v>7.85475541604794</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -1287,10 +1287,10 @@
         <v>4</v>
       </c>
       <c r="J11">
-        <v>1.0358798985</v>
+        <v>3.2458798985000001</v>
       </c>
       <c r="K11">
-        <v>9.0000533130462301</v>
+        <v>8.4475533130462299</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -1301,10 +1301,10 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <v>1.143466477</v>
+        <v>3.5934664770000002</v>
       </c>
       <c r="K12">
-        <v>9.5504881752705497</v>
+        <v>8.9379881752705508</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -1315,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="J13">
-        <v>1.2906296260000001</v>
+        <v>3.7806296260000001</v>
       </c>
       <c r="K13">
-        <v>9.8178439633630106</v>
+        <v>9.1953439633630101</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -1329,10 +1329,10 @@
         <v>4</v>
       </c>
       <c r="J14">
-        <v>1.3418825169999999</v>
+        <v>3.9018825170000002</v>
       </c>
       <c r="K14">
-        <v>10.0940458091062</v>
+        <v>9.4540458091061605</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -1343,10 +1343,10 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>1.464400143</v>
+        <v>4.0144001429999996</v>
       </c>
       <c r="K15">
-        <v>10.364176676578801</v>
+        <v>9.7266766765787693</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -1357,10 +1357,10 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>1.575357012</v>
+        <v>4.1853570119999999</v>
       </c>
       <c r="K16">
-        <v>10.7933908839863</v>
+        <v>10.1408908839863</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -1373,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC025F01-BEA3-4D83-A2AD-7D333CAC0955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7D0603-1704-40B8-86AA-2C7A508BAD51}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1399,10 +1399,10 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>0.52807783799999997</v>
+        <v>1.9180778380000001</v>
       </c>
       <c r="K2">
-        <v>7.8363257459794502</v>
+        <v>7.4888257459794501</v>
       </c>
       <c r="L2">
         <v>1990</v>
@@ -1413,10 +1413,10 @@
         <v>13</v>
       </c>
       <c r="J3">
-        <v>0.69629369750000003</v>
+        <v>1.6362936975</v>
       </c>
       <c r="K3">
-        <v>6.6236306852140396</v>
+        <v>6.3886306852140402</v>
       </c>
       <c r="L3">
         <v>1993</v>
@@ -1427,10 +1427,10 @@
         <v>13</v>
       </c>
       <c r="J4">
-        <v>0.94132578099999997</v>
+        <v>1.441325781</v>
       </c>
       <c r="K4">
-        <v>5.7524425273527404</v>
+        <v>5.6274425273527404</v>
       </c>
       <c r="L4">
         <v>1996</v>
@@ -1441,10 +1441,10 @@
         <v>13</v>
       </c>
       <c r="J5">
-        <v>0.995295665</v>
+        <v>1.3452956650000001</v>
       </c>
       <c r="K5">
-        <v>5.3399829330650697</v>
+        <v>5.2524829330650702</v>
       </c>
       <c r="L5">
         <v>1999</v>
@@ -1455,10 +1455,10 @@
         <v>13</v>
       </c>
       <c r="J6">
-        <v>1.1072166050000001</v>
+        <v>1.327216605</v>
       </c>
       <c r="K6">
-        <v>5.2369122871061604</v>
+        <v>5.1819122871061598</v>
       </c>
       <c r="L6">
         <v>2002</v>
@@ -1469,10 +1469,10 @@
         <v>13</v>
       </c>
       <c r="J7">
-        <v>1.226296608</v>
+        <v>1.256296608</v>
       </c>
       <c r="K7">
-        <v>5.4317847521095901</v>
+        <v>5.4242847521095898</v>
       </c>
       <c r="L7">
         <v>2005</v>
@@ -1483,10 +1483,10 @@
         <v>13</v>
       </c>
       <c r="J8">
-        <v>1.2516427640000001</v>
+        <v>1.2316427640000001</v>
       </c>
       <c r="K8">
-        <v>5.9109756103698601</v>
+        <v>5.91597561036986</v>
       </c>
       <c r="L8">
         <v>2008</v>
@@ -1497,10 +1497,10 @@
         <v>13</v>
       </c>
       <c r="J9">
-        <v>1.323158713</v>
+        <v>1.1931587130000001</v>
       </c>
       <c r="K9">
-        <v>6.1443527875034203</v>
+        <v>6.17685278750342</v>
       </c>
       <c r="L9">
         <v>2010</v>
@@ -1511,10 +1511,10 @@
         <v>13</v>
       </c>
       <c r="J10">
-        <v>1.4447207989999999</v>
+        <v>1.1747207989999999</v>
       </c>
       <c r="K10">
-        <v>6.2530882934006904</v>
+        <v>6.3205882934006796</v>
       </c>
       <c r="L10">
         <v>2011</v>
@@ -1525,10 +1525,10 @@
         <v>13</v>
       </c>
       <c r="J11">
-        <v>1.4988576755</v>
+        <v>1.1588576755</v>
       </c>
       <c r="K11">
-        <v>6.4007896907140402</v>
+        <v>6.4857896907140402</v>
       </c>
       <c r="L11">
         <v>2012</v>
@@ -1539,10 +1539,10 @@
         <v>13</v>
       </c>
       <c r="J12">
-        <v>1.914471</v>
+        <v>1.1944710000000001</v>
       </c>
       <c r="K12">
-        <v>5.5898890993150703</v>
+        <v>5.76988909931507</v>
       </c>
       <c r="L12">
         <v>2013</v>
@@ -1553,10 +1553,10 @@
         <v>13</v>
       </c>
       <c r="J13">
-        <v>2.0238040540000002</v>
+        <v>1.303804054</v>
       </c>
       <c r="K13">
-        <v>6.1178599454041098</v>
+        <v>6.2978599454041104</v>
       </c>
       <c r="L13">
         <v>2015</v>
@@ -1569,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4DFF6C-3BB1-499C-9BD2-FEB1D50C6B9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1451D8-96CA-4EEF-BB4A-2D894CFDCBD3}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1595,10 +1595,10 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>-0.75901264000000002</v>
+        <v>5.6809873599999996</v>
       </c>
       <c r="K2">
-        <v>18.2681928860274</v>
+        <v>16.6581928860274</v>
       </c>
       <c r="L2">
         <v>1990</v>
@@ -1609,10 +1609,10 @@
         <v>14</v>
       </c>
       <c r="J3">
-        <v>-1.7004276250000001</v>
+        <v>8.1795723749999993</v>
       </c>
       <c r="K3">
-        <v>26.455786358304799</v>
+        <v>23.9857863583048</v>
       </c>
       <c r="L3">
         <v>1993</v>
@@ -1623,10 +1623,10 @@
         <v>14</v>
       </c>
       <c r="J4">
-        <v>-1.5643995125000001</v>
+        <v>8.6556004874999992</v>
       </c>
       <c r="K4">
-        <v>27.936619056207199</v>
+        <v>25.381619056207199</v>
       </c>
       <c r="L4">
         <v>1996</v>
@@ -1637,10 +1637,10 @@
         <v>14</v>
       </c>
       <c r="J5">
-        <v>-1.29161185</v>
+        <v>8.1583881500000004</v>
       </c>
       <c r="K5">
-        <v>26.2885481679794</v>
+        <v>23.926048167979499</v>
       </c>
       <c r="L5">
         <v>1999</v>
@@ -1651,10 +1651,10 @@
         <v>14</v>
       </c>
       <c r="J6">
-        <v>-1.34851695</v>
+        <v>8.0014830499999992</v>
       </c>
       <c r="K6">
-        <v>25.8008949909247</v>
+        <v>23.463394990924701</v>
       </c>
       <c r="L6">
         <v>2002</v>
@@ -1665,10 +1665,10 @@
         <v>14</v>
       </c>
       <c r="J7">
-        <v>-0.73775814149999996</v>
+        <v>7.3922418585000003</v>
       </c>
       <c r="K7">
-        <v>23.710760083320199</v>
+        <v>21.6782600833202</v>
       </c>
       <c r="L7">
         <v>2005</v>
@@ -1679,10 +1679,10 @@
         <v>14</v>
       </c>
       <c r="J8">
-        <v>-1.1136779000000001</v>
+        <v>8.3863220999999992</v>
       </c>
       <c r="K8">
-        <v>26.966271529794501</v>
+        <v>24.591271529794501</v>
       </c>
       <c r="L8">
         <v>2008</v>
@@ -1693,10 +1693,10 @@
         <v>14</v>
       </c>
       <c r="J9">
-        <v>-1.347986975</v>
+        <v>9.7620130249999999</v>
       </c>
       <c r="K9">
-        <v>31.403599483476</v>
+        <v>28.626099483476001</v>
       </c>
       <c r="L9">
         <v>2010</v>
@@ -1707,10 +1707,10 @@
         <v>14</v>
       </c>
       <c r="J10">
-        <v>-1.0958106249999999</v>
+        <v>9.1141893750000005</v>
       </c>
       <c r="K10">
-        <v>29.278129368578799</v>
+        <v>26.725629368578801</v>
       </c>
       <c r="L10">
         <v>2011</v>
@@ -1721,10 +1721,10 @@
         <v>14</v>
       </c>
       <c r="J11">
-        <v>-0.91786937499999999</v>
+        <v>8.9621306250000004</v>
       </c>
       <c r="K11">
-        <v>28.7494193985445</v>
+        <v>26.279419398544501</v>
       </c>
       <c r="L11">
         <v>2012</v>
@@ -1735,10 +1735,10 @@
         <v>14</v>
       </c>
       <c r="J12">
-        <v>-0.56578522499999995</v>
+        <v>8.4142147749999996</v>
       </c>
       <c r="K12">
-        <v>26.917777813099299</v>
+        <v>24.672777813099302</v>
       </c>
       <c r="L12">
         <v>2013</v>
@@ -1749,10 +1749,10 @@
         <v>14</v>
       </c>
       <c r="J13">
-        <v>-0.37147669999999999</v>
+        <v>8.4485232999999997</v>
       </c>
       <c r="K13">
-        <v>26.978713010616399</v>
+        <v>24.773713010616401</v>
       </c>
       <c r="L13">
         <v>2015</v>
@@ -1765,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72E2964-B069-47CB-9E48-4527E719E366}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDACEEC-BC30-413C-AE4D-29A8D5C093D8}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1791,10 +1791,10 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>0.35952471000000003</v>
+        <v>3.4295247099999999</v>
       </c>
       <c r="K2">
-        <v>11.3385078635959</v>
+        <v>10.5710078635959</v>
       </c>
       <c r="L2">
         <v>1996</v>
@@ -1805,10 +1805,10 @@
         <v>15</v>
       </c>
       <c r="J3">
-        <v>0.14272504699999999</v>
+        <v>4.1227250470000003</v>
       </c>
       <c r="K3">
-        <v>13.702699560167799</v>
+        <v>12.7076995601678</v>
       </c>
       <c r="L3">
         <v>1999</v>
@@ -1819,10 +1819,10 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <v>0.61662740699999996</v>
+        <v>3.0366274070000001</v>
       </c>
       <c r="K4">
-        <v>9.9649499975650695</v>
+        <v>9.3599499975650708</v>
       </c>
       <c r="L4">
         <v>2002</v>
@@ -1833,10 +1833,10 @@
         <v>15</v>
       </c>
       <c r="J5">
-        <v>0.60212744699999998</v>
+        <v>3.7221274470000001</v>
       </c>
       <c r="K5">
-        <v>12.569513343729501</v>
+        <v>11.789513343729499</v>
       </c>
       <c r="L5">
         <v>2005</v>
@@ -1847,10 +1847,10 @@
         <v>15</v>
       </c>
       <c r="J6">
-        <v>0.80453409200000003</v>
+        <v>3.5645340920000002</v>
       </c>
       <c r="K6">
-        <v>11.968181545493101</v>
+        <v>11.2781815454931</v>
       </c>
       <c r="L6">
         <v>2008</v>
@@ -1861,10 +1861,10 @@
         <v>15</v>
       </c>
       <c r="J7">
-        <v>0.88386613449999996</v>
+        <v>4.0538661344999998</v>
       </c>
       <c r="K7">
-        <v>13.3517690828134</v>
+        <v>12.559269082813399</v>
       </c>
       <c r="L7">
         <v>2010</v>
@@ -1875,10 +1875,10 @@
         <v>15</v>
       </c>
       <c r="J8">
-        <v>1.0019107574999999</v>
+        <v>4.1619107575000003</v>
       </c>
       <c r="K8">
-        <v>13.295508611994901</v>
+        <v>12.5055086119949</v>
       </c>
       <c r="L8">
         <v>2011</v>
@@ -1889,10 +1889,10 @@
         <v>15</v>
       </c>
       <c r="J9">
-        <v>0.95756431799999997</v>
+        <v>4.467564318</v>
       </c>
       <c r="K9">
-        <v>14.4338020711849</v>
+        <v>13.5563020711849</v>
       </c>
       <c r="L9">
         <v>2012</v>
@@ -1903,10 +1903,10 @@
         <v>15</v>
       </c>
       <c r="J10">
-        <v>1.1846655450000001</v>
+        <v>4.124665545</v>
       </c>
       <c r="K10">
-        <v>13.3744678603253</v>
+        <v>12.639467860325301</v>
       </c>
       <c r="L10">
         <v>2013</v>
@@ -1917,10 +1917,10 @@
         <v>15</v>
       </c>
       <c r="J11">
-        <v>1.2669750790000001</v>
+        <v>4.1969750790000004</v>
       </c>
       <c r="K11">
-        <v>13.8500123946336</v>
+        <v>13.1175123946336</v>
       </c>
       <c r="L11">
         <v>2015</v>
@@ -1933,7 +1933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5EAFC5-5996-4327-9253-89602105A99F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D73DC7-40FE-4945-B254-A60D8F4ED824}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1959,10 +1959,10 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>0.63676909000000004</v>
+        <v>1.64676909</v>
       </c>
       <c r="K2">
-        <v>4.6250063576369902</v>
+        <v>4.3725063576369898</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -1973,10 +1973,10 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>0.78824651800000001</v>
+        <v>1.758246518</v>
       </c>
       <c r="K3">
-        <v>4.9110219321438402</v>
+        <v>4.6685219321438396</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -1987,10 +1987,10 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>0.85749214100000004</v>
+        <v>1.9574921409999999</v>
       </c>
       <c r="K4">
-        <v>5.4725502524212297</v>
+        <v>5.1975502524212303</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2001,10 +2001,10 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>0.89750865899999999</v>
+        <v>1.827508659</v>
       </c>
       <c r="K5">
-        <v>5.08491187634589</v>
+        <v>4.8524118763458901</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2015,10 +2015,10 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>0.92265533600000005</v>
+        <v>2.0226553360000001</v>
       </c>
       <c r="K6">
-        <v>5.3857347961369904</v>
+        <v>5.1107347961369802</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2029,10 +2029,10 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>1.089482673</v>
+        <v>2.1394826729999998</v>
       </c>
       <c r="K7">
-        <v>5.3762717975034198</v>
+        <v>5.1137717975034196</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2043,10 +2043,10 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>1.0351877229999999</v>
+        <v>2.3551877229999998</v>
       </c>
       <c r="K8">
-        <v>6.2497482747294502</v>
+        <v>5.9197482747294501</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2057,10 +2057,10 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>1.0945980479999999</v>
+        <v>2.3245980479999999</v>
       </c>
       <c r="K9">
-        <v>6.30106418663014</v>
+        <v>5.9935641866301399</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2071,10 +2071,10 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>1.333980696</v>
+        <v>2.1939806960000001</v>
       </c>
       <c r="K10">
-        <v>5.7577500314794499</v>
+        <v>5.54275003147945</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2085,10 +2085,10 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>1.4535175385000001</v>
+        <v>2.2435175384999999</v>
       </c>
       <c r="K11">
-        <v>5.7587658208544497</v>
+        <v>5.5612658208544499</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2099,10 +2099,10 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>1.5818970400000001</v>
+        <v>2.3218970400000001</v>
       </c>
       <c r="K12">
-        <v>5.9821188906849301</v>
+        <v>5.7971188906849296</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2113,10 +2113,10 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>1.7227794574999999</v>
+        <v>2.3827794574999999</v>
       </c>
       <c r="K13">
-        <v>6.0615065054880102</v>
+        <v>5.8965065054880101</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2127,10 +2127,10 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>1.778427795</v>
+        <v>2.458427795</v>
       </c>
       <c r="K14">
-        <v>6.1139231882363001</v>
+        <v>5.9439231882363002</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2141,10 +2141,10 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>1.9209411240000001</v>
+        <v>2.5209411240000001</v>
       </c>
       <c r="K15">
-        <v>6.22734143132877</v>
+        <v>6.0773414313287697</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2155,10 +2155,10 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>2.0363915499999998</v>
+        <v>2.7463915499999998</v>
       </c>
       <c r="K16">
-        <v>7.0166034823630099</v>
+        <v>6.8391034823630097</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2171,7 +2171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2059B00-E7BD-4FE9-9872-1E26B8366C5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531A925A-3C21-4477-9F45-32A46BACADE2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2197,10 +2197,10 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>0.186960187</v>
+        <v>1.8469601870000001</v>
       </c>
       <c r="K2">
-        <v>10.1961106381815</v>
+        <v>9.7811106381815094</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2211,10 +2211,10 @@
         <v>6</v>
       </c>
       <c r="J3">
-        <v>0.15906429750000001</v>
+        <v>2.2990642975000002</v>
       </c>
       <c r="K3">
-        <v>12.7103613228853</v>
+        <v>12.175361322885299</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2225,10 +2225,10 @@
         <v>6</v>
       </c>
       <c r="J4">
-        <v>0.29521144999999999</v>
+        <v>2.29521145</v>
       </c>
       <c r="K4">
-        <v>11.0647245347603</v>
+        <v>10.5647245347603</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2239,10 +2239,10 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>0.46050975249999998</v>
+        <v>1.9205097524999999</v>
       </c>
       <c r="K5">
-        <v>10.2004547536558</v>
+        <v>9.8354547536558208</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2253,10 +2253,10 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>0.21479335399999999</v>
+        <v>2.8047933540000001</v>
       </c>
       <c r="K6">
-        <v>13.0446139902671</v>
+        <v>12.397113990267099</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2267,10 +2267,10 @@
         <v>6</v>
       </c>
       <c r="J7">
-        <v>0.47588248500000002</v>
+        <v>2.605882485</v>
       </c>
       <c r="K7">
-        <v>12.2543156801199</v>
+        <v>11.721815680119899</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2281,10 +2281,10 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>0.40038753500000002</v>
+        <v>2.8703875349999999</v>
       </c>
       <c r="K8">
-        <v>13.770674349126701</v>
+        <v>13.153174349126701</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2295,10 +2295,10 @@
         <v>6</v>
       </c>
       <c r="J9">
-        <v>5.4322552500000197E-2</v>
+        <v>3.8343225525000002</v>
       </c>
       <c r="K9">
-        <v>18.324539909820199</v>
+        <v>17.379539909820199</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2309,10 +2309,10 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>-0.122566248</v>
+        <v>4.6474337520000004</v>
       </c>
       <c r="K10">
-        <v>22.0071826578904</v>
+        <v>20.814682657890401</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2323,10 +2323,10 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>-8.5260241999999903E-2</v>
+        <v>4.6747397580000003</v>
       </c>
       <c r="K11">
-        <v>22.408819170089</v>
+        <v>21.218819170088999</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2337,10 +2337,10 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>-7.0436937499999797E-2</v>
+        <v>5.0195630624999996</v>
       </c>
       <c r="K12">
-        <v>22.2309284124572</v>
+        <v>20.958428412457199</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2351,10 +2351,10 @@
         <v>6</v>
       </c>
       <c r="J13">
-        <v>4.3832129499999699E-2</v>
+        <v>5.4438321294999996</v>
       </c>
       <c r="K13">
-        <v>22.647836488172899</v>
+        <v>21.297836488172901</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2365,10 +2365,10 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>0.26048904000000001</v>
+        <v>5.53048904</v>
       </c>
       <c r="K14">
-        <v>21.578928424931501</v>
+        <v>20.261428424931498</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2379,10 +2379,10 @@
         <v>6</v>
       </c>
       <c r="J15">
-        <v>0.52654423500000003</v>
+        <v>5.6365442349999997</v>
       </c>
       <c r="K15">
-        <v>20.6079516124829</v>
+        <v>19.3304516124829</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <v>0.68862705150000003</v>
+        <v>4.8986270515000001</v>
       </c>
       <c r="K16">
-        <v>19.296799401508601</v>
+        <v>18.244299401508599</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2409,7 +2409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9D1DE1-4E83-4838-97C4-9CFFDEF40AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F24DF-85B3-4DE2-BFC9-59023B4146DA}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2435,10 +2435,10 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>0.52436672350000002</v>
+        <v>2.0243667235</v>
       </c>
       <c r="K2">
-        <v>5.32864941501541</v>
+        <v>4.95364941501541</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2449,10 +2449,10 @@
         <v>7</v>
       </c>
       <c r="J3">
-        <v>0.79643904700000001</v>
+        <v>1.6564390470000001</v>
       </c>
       <c r="K3">
-        <v>4.26832585468836</v>
+        <v>4.0533258546883602</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2463,10 +2463,10 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>0.67776544000000005</v>
+        <v>2.5577654399999998</v>
       </c>
       <c r="K4">
-        <v>6.7288860372602697</v>
+        <v>6.2588860372602699</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2477,10 +2477,10 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>0.88427617599999997</v>
+        <v>1.7942761759999999</v>
       </c>
       <c r="K5">
-        <v>4.6181241066849301</v>
+        <v>4.3906241066849301</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2491,10 +2491,10 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>1.0096930529999999</v>
+        <v>1.4596930530000001</v>
       </c>
       <c r="K6">
-        <v>3.6844237230513701</v>
+        <v>3.5719237230513698</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2505,10 +2505,10 @@
         <v>7</v>
       </c>
       <c r="J7">
-        <v>1.1375153899999999</v>
+        <v>1.5675153900000001</v>
       </c>
       <c r="K7">
-        <v>3.94322937167808</v>
+        <v>3.83572937167808</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2519,10 +2519,10 @@
         <v>7</v>
       </c>
       <c r="J8">
-        <v>0.86577742599999996</v>
+        <v>2.7457774260000001</v>
       </c>
       <c r="K8">
-        <v>7.1889487941849302</v>
+        <v>6.7189487941849304</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2533,10 +2533,10 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>1.0428481599999999</v>
+        <v>2.4328481599999998</v>
       </c>
       <c r="K9">
-        <v>6.3007071380821902</v>
+        <v>5.95320713808219</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2547,10 +2547,10 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>1.2587356670000001</v>
+        <v>2.418735667</v>
       </c>
       <c r="K10">
-        <v>6.2086845764006799</v>
+        <v>5.9186845764006799</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2561,10 +2561,10 @@
         <v>7</v>
       </c>
       <c r="J11">
-        <v>1.3345804640000001</v>
+        <v>2.5745804639999998</v>
       </c>
       <c r="K11">
-        <v>6.6917877607123302</v>
+        <v>6.3817877607123297</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2575,10 +2575,10 @@
         <v>7</v>
       </c>
       <c r="J12">
-        <v>1.4568593605</v>
+        <v>2.5468593605000001</v>
       </c>
       <c r="K12">
-        <v>6.7282824201489699</v>
+        <v>6.45578242014897</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2589,10 +2589,10 @@
         <v>7</v>
       </c>
       <c r="J13">
-        <v>1.5871653999999999</v>
+        <v>2.5471653999999999</v>
       </c>
       <c r="K13">
-        <v>6.7686470061643798</v>
+        <v>6.5286470061643804</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2603,10 +2603,10 @@
         <v>7</v>
       </c>
       <c r="J14">
-        <v>1.6459793715</v>
+        <v>2.5859793715000001</v>
       </c>
       <c r="K14">
-        <v>6.9368859790428097</v>
+        <v>6.7018859790428102</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2617,10 +2617,10 @@
         <v>7</v>
       </c>
       <c r="J15">
-        <v>1.775927429</v>
+        <v>2.6659274289999999</v>
       </c>
       <c r="K15">
-        <v>7.1315852660376704</v>
+        <v>6.9090852660376703</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2631,10 +2631,10 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>1.9395361330000001</v>
+        <v>2.639536133</v>
       </c>
       <c r="K16">
-        <v>7.0156830900376699</v>
+        <v>6.8406830900376701</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2647,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0C54CE-A14E-44C6-AD1A-3E1EAD15C292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77114A9C-B3B4-453D-8769-BBC63FAFD526}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2673,10 +2673,10 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>1.91179899999994E-3</v>
+        <v>3.801911799</v>
       </c>
       <c r="K2">
-        <v>13.1323754749075</v>
+        <v>12.1823754749075</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2687,10 +2687,10 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <v>0.113625728</v>
+        <v>4.0236257279999998</v>
       </c>
       <c r="K3">
-        <v>13.8037058967671</v>
+        <v>12.8262058967671</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2701,10 +2701,10 @@
         <v>8</v>
       </c>
       <c r="J4">
-        <v>0.48341433</v>
+        <v>2.6134143299999999</v>
       </c>
       <c r="K4">
-        <v>10.2072176503767</v>
+        <v>9.6747176503767101</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2715,10 +2715,10 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <v>0.22394836400000001</v>
+        <v>3.973948364</v>
       </c>
       <c r="K5">
-        <v>13.9411252377671</v>
+        <v>13.0036252377671</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2729,10 +2729,10 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>0.50444825000000004</v>
+        <v>2.6344482500000002</v>
       </c>
       <c r="K6">
-        <v>10.528864649828799</v>
+        <v>9.9963646498287595</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2743,10 +2743,10 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>0.67998216</v>
+        <v>2.7999821599999999</v>
       </c>
       <c r="K7">
-        <v>9.6808332271232906</v>
+        <v>9.1508332271232895</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2757,10 +2757,10 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>0.68039375000000002</v>
+        <v>2.9303937499999999</v>
       </c>
       <c r="K8">
-        <v>9.7671796446917796</v>
+        <v>9.2046796446917796</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2771,10 +2771,10 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>0.65961508349999998</v>
+        <v>3.2396150834999999</v>
       </c>
       <c r="K9">
-        <v>11.011822256522301</v>
+        <v>10.366822256522299</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2785,10 +2785,10 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>0.74044370250000002</v>
+        <v>3.7304437025000001</v>
       </c>
       <c r="K10">
-        <v>11.847737019580499</v>
+        <v>11.100237019580501</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2799,10 +2799,10 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>0.87706968500000004</v>
+        <v>4.0970696850000001</v>
       </c>
       <c r="K11">
-        <v>11.996761345873299</v>
+        <v>11.191761345873299</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2813,10 +2813,10 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <v>0.92606924199999996</v>
+        <v>4.4260692419999996</v>
       </c>
       <c r="K12">
-        <v>13.2707717305959</v>
+        <v>12.3957717305959</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2827,10 +2827,10 @@
         <v>8</v>
       </c>
       <c r="J13">
-        <v>1.105932948</v>
+        <v>4.375932948</v>
       </c>
       <c r="K13">
-        <v>13.067656489027399</v>
+        <v>12.2501564890274</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2841,10 +2841,10 @@
         <v>8</v>
       </c>
       <c r="J14">
-        <v>1.2172328720000001</v>
+        <v>4.2572328720000003</v>
       </c>
       <c r="K14">
-        <v>12.6778589052877</v>
+        <v>11.9178589052877</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2855,10 +2855,10 @@
         <v>8</v>
       </c>
       <c r="J15">
-        <v>1.3886639365</v>
+        <v>4.1586639365</v>
       </c>
       <c r="K15">
-        <v>12.3344216871079</v>
+        <v>11.641921687107899</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2869,10 +2869,10 @@
         <v>8</v>
       </c>
       <c r="J16">
-        <v>1.5824985730000001</v>
+        <v>4.0324985729999998</v>
       </c>
       <c r="K16">
-        <v>11.9012315211336</v>
+        <v>11.288731521133601</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2885,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9FAC87-8466-4F09-9BEC-AEDC1334DE06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2026D1-1974-431E-A8A1-B138BD320A4C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2911,10 +2911,10 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>0.45063658249999999</v>
+        <v>1.5906365825</v>
       </c>
       <c r="K2">
-        <v>5.9309723612243097</v>
+        <v>5.6459723612243096</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2925,10 +2925,10 @@
         <v>9</v>
       </c>
       <c r="J3">
-        <v>0.55217414249999996</v>
+        <v>1.7921741425</v>
       </c>
       <c r="K3">
-        <v>6.6713605739640398</v>
+        <v>6.3613605739640402</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2939,10 +2939,10 @@
         <v>9</v>
       </c>
       <c r="J4">
-        <v>0.58963361599999997</v>
+        <v>2.3096336160000002</v>
       </c>
       <c r="K4">
-        <v>8.6591203631232894</v>
+        <v>8.2291203631232896</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2953,10 +2953,10 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <v>0.63992987999999995</v>
+        <v>2.0299298800000001</v>
       </c>
       <c r="K5">
-        <v>7.5696901327397201</v>
+        <v>7.2221901327397298</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2967,10 +2967,10 @@
         <v>9</v>
       </c>
       <c r="J6">
-        <v>0.65047984000000003</v>
+        <v>2.1804798399999998</v>
       </c>
       <c r="K6">
-        <v>8.4699540126027397</v>
+        <v>8.0874540126027394</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2981,10 +2981,10 @@
         <v>9</v>
       </c>
       <c r="J7">
-        <v>0.77120990950000001</v>
+        <v>2.2312099095</v>
       </c>
       <c r="K7">
-        <v>8.7622427281044502</v>
+        <v>8.3972427281044499</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2995,10 +2995,10 @@
         <v>9</v>
       </c>
       <c r="J8">
-        <v>0.88261385550000004</v>
+        <v>2.0426138555</v>
       </c>
       <c r="K8">
-        <v>7.7276287279058202</v>
+        <v>7.4376287279058202</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3009,10 +3009,10 @@
         <v>9</v>
       </c>
       <c r="J9">
-        <v>0.94578580499999998</v>
+        <v>2.145785805</v>
       </c>
       <c r="K9">
-        <v>8.0520357405308207</v>
+        <v>7.75203574053082</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3023,10 +3023,10 @@
         <v>9</v>
       </c>
       <c r="J10">
-        <v>1.0577127835</v>
+        <v>2.3677127835</v>
       </c>
       <c r="K10">
-        <v>8.8260279685085603</v>
+        <v>8.4985279685085597</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3037,10 +3037,10 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <v>1.0472847055000001</v>
+        <v>2.7772847055000001</v>
       </c>
       <c r="K11">
-        <v>10.314559645542801</v>
+        <v>9.8820596455428102</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3051,10 +3051,10 @@
         <v>9</v>
       </c>
       <c r="J12">
-        <v>1.1195946000000001</v>
+        <v>2.9795946</v>
       </c>
       <c r="K12">
-        <v>10.9827876513699</v>
+        <v>10.5177876513699</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3065,10 +3065,10 @@
         <v>9</v>
       </c>
       <c r="J13">
-        <v>1.22162269</v>
+        <v>3.1316226899999999</v>
       </c>
       <c r="K13">
-        <v>11.487655971335601</v>
+        <v>11.0101559713356</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3079,10 +3079,10 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <v>1.2602082075000001</v>
+        <v>3.2402082074999998</v>
       </c>
       <c r="K14">
-        <v>11.8408616467551</v>
+        <v>11.3458616467551</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3093,10 +3093,10 @@
         <v>9</v>
       </c>
       <c r="J15">
-        <v>1.38529539</v>
+        <v>3.3152953900000002</v>
       </c>
       <c r="K15">
-        <v>12.0438898511301</v>
+        <v>11.5613898511301</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3107,10 +3107,10 @@
         <v>9</v>
       </c>
       <c r="J16">
-        <v>1.4999190615</v>
+        <v>3.4299190615000001</v>
       </c>
       <c r="K16">
-        <v>12.418931193529099</v>
+        <v>11.936431193529099</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3123,7 +3123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185AEE78-1427-4710-AF90-214B58D842ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331161AC-43AD-466D-AE51-4322CA4C9E98}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3149,10 +3149,10 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>0.36257695000000001</v>
+        <v>2.33257695</v>
       </c>
       <c r="K2">
-        <v>7.53476398167808</v>
+        <v>7.0422639816780803</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3163,10 +3163,10 @@
         <v>10</v>
       </c>
       <c r="J3">
-        <v>0.61485856400000005</v>
+        <v>2.0848585640000001</v>
       </c>
       <c r="K3">
-        <v>6.6618949480410903</v>
+        <v>6.2943949480411003</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3177,10 +3177,10 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>0.75031533800000005</v>
+        <v>1.970315338</v>
       </c>
       <c r="K4">
-        <v>6.2535732202945198</v>
+        <v>5.9485732202945201</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3191,10 +3191,10 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>0.773174625</v>
+        <v>1.9431746249999999</v>
       </c>
       <c r="K5">
-        <v>6.1591159327911003</v>
+        <v>5.8666159327910998</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3205,10 +3205,10 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>0.69943460000000002</v>
+        <v>2.3294345999999999</v>
       </c>
       <c r="K6">
-        <v>7.4402632678082199</v>
+        <v>7.0327632678082201</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3219,10 +3219,10 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>0.79636994400000005</v>
+        <v>2.5463699439999998</v>
       </c>
       <c r="K7">
-        <v>8.1252129934520507</v>
+        <v>7.6877129934520498</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3233,10 +3233,10 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>0.840852708</v>
+        <v>2.4508527080000002</v>
       </c>
       <c r="K8">
-        <v>7.8018703846438404</v>
+        <v>7.3993703846438397</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3247,10 +3247,10 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>0.89045224000000001</v>
+        <v>2.6404522400000001</v>
       </c>
       <c r="K9">
-        <v>8.4092540632876691</v>
+        <v>7.97175406328767</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3261,10 +3261,10 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>1.0509755475</v>
+        <v>2.8209755474999998</v>
       </c>
       <c r="K10">
-        <v>8.9592684418921191</v>
+        <v>8.5167684418921201</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3275,10 +3275,10 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <v>1.1264120900000001</v>
+        <v>3.0564120899999998</v>
       </c>
       <c r="K11">
-        <v>9.7100983473630098</v>
+        <v>9.2275983473630099</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3289,10 +3289,10 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>1.176798614</v>
+        <v>3.3467986139999999</v>
       </c>
       <c r="K12">
-        <v>10.646771579376701</v>
+        <v>10.1042715793767</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3303,10 +3303,10 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>1.3893306249999999</v>
+        <v>3.1493306250000002</v>
       </c>
       <c r="K13">
-        <v>9.9481248779965696</v>
+        <v>9.5081248779965808</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3317,10 +3317,10 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <v>1.6585290365000001</v>
+        <v>2.4785290364999999</v>
       </c>
       <c r="K14">
-        <v>7.6878910285462299</v>
+        <v>7.4828910285462298</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3331,10 +3331,10 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <v>1.9272543959999999</v>
+        <v>2.047254396</v>
       </c>
       <c r="K15">
-        <v>6.2108699626438302</v>
+        <v>6.1808699626438299</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3345,10 +3345,10 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <v>2.2595553709999998</v>
+        <v>1.449555371</v>
       </c>
       <c r="K16">
-        <v>4.1738659517705496</v>
+        <v>4.3763659517705502</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3361,7 +3361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B9B1F7-CFB5-4707-9E7E-9E023554B992}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A097384C-4990-4FE7-AA4A-F6151E32927A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3387,10 +3387,10 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>0.42308233200000001</v>
+        <v>1.573082332</v>
       </c>
       <c r="K2">
-        <v>7.0023472252191796</v>
+        <v>6.71484722521918</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3401,10 +3401,10 @@
         <v>11</v>
       </c>
       <c r="J3">
-        <v>0.58206611900000005</v>
+        <v>1.6320661190000001</v>
       </c>
       <c r="K3">
-        <v>7.2290999086061598</v>
+        <v>6.9665999086061596</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3415,10 +3415,10 @@
         <v>11</v>
       </c>
       <c r="J4">
-        <v>0.56996994000000001</v>
+        <v>1.84996994</v>
       </c>
       <c r="K4">
-        <v>7.7444787478767099</v>
+        <v>7.4244787478767096</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3429,10 +3429,10 @@
         <v>11</v>
       </c>
       <c r="J5">
-        <v>0.67127474899999995</v>
+        <v>1.6712747489999999</v>
       </c>
       <c r="K5">
-        <v>7.2518182990513704</v>
+        <v>7.0018182990513704</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3443,10 +3443,10 @@
         <v>11</v>
       </c>
       <c r="J6">
-        <v>0.64018502749999995</v>
+        <v>1.8201850275</v>
       </c>
       <c r="K6">
-        <v>7.8249468938099298</v>
+        <v>7.5299468938099299</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3457,10 +3457,10 @@
         <v>11</v>
       </c>
       <c r="J7">
-        <v>0.79871424999999996</v>
+        <v>1.86871425</v>
       </c>
       <c r="K7">
-        <v>8.0518049991438403</v>
+        <v>7.7843049991438296</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3471,10 +3471,10 @@
         <v>11</v>
       </c>
       <c r="J8">
-        <v>0.73927345700000002</v>
+        <v>2.1592734569999998</v>
       </c>
       <c r="K8">
-        <v>9.0270473891746601</v>
+        <v>8.6720473891746597</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3485,10 +3485,10 @@
         <v>11</v>
       </c>
       <c r="J9">
-        <v>0.74442109499999998</v>
+        <v>2.3944210950000002</v>
       </c>
       <c r="K9">
-        <v>9.6253371920034194</v>
+        <v>9.2128371920034304</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3499,10 +3499,10 @@
         <v>11</v>
       </c>
       <c r="J10">
-        <v>0.82778005600000004</v>
+        <v>2.6477800560000002</v>
       </c>
       <c r="K10">
-        <v>10.129863205178101</v>
+        <v>9.6748632051780792</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3513,10 +3513,10 @@
         <v>11</v>
       </c>
       <c r="J11">
-        <v>0.80562745000000002</v>
+        <v>2.9256274499999999</v>
       </c>
       <c r="K11">
-        <v>10.9073588909247</v>
+        <v>10.3773588909247</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3527,10 +3527,10 @@
         <v>11</v>
       </c>
       <c r="J12">
-        <v>0.83508910599999997</v>
+        <v>3.1350891060000001</v>
       </c>
       <c r="K12">
-        <v>11.480629093363</v>
+        <v>10.905629093363</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3541,10 +3541,10 @@
         <v>11</v>
       </c>
       <c r="J13">
-        <v>0.8986962785</v>
+        <v>3.3386962785000001</v>
       </c>
       <c r="K13">
-        <v>12.175653327635301</v>
+        <v>11.5656533276353</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3555,10 +3555,10 @@
         <v>11</v>
       </c>
       <c r="J14">
-        <v>0.88613832000000003</v>
+        <v>3.5561383200000001</v>
       </c>
       <c r="K14">
-        <v>12.9864133652055</v>
+        <v>12.3189133652055</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3569,10 +3569,10 @@
         <v>11</v>
       </c>
       <c r="J15">
-        <v>0.93516509449999996</v>
+        <v>3.8051650945</v>
       </c>
       <c r="K15">
-        <v>13.8990566715805</v>
+        <v>13.1815566715805</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3583,10 +3583,10 @@
         <v>11</v>
       </c>
       <c r="J16">
-        <v>1.0666016899999999</v>
+        <v>3.86660169</v>
       </c>
       <c r="K16">
-        <v>14.0943947829794</v>
+        <v>13.394394782979401</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3599,7 +3599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBB62E4-6D78-4257-A0BF-C66324BD8B4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D1943E-0443-460C-9E67-0A4DD18CEC59}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3625,10 +3625,10 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>0.55877981499999996</v>
+        <v>1.3187798150000001</v>
       </c>
       <c r="K2">
-        <v>4.4874598407705504</v>
+        <v>4.29745984077055</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3639,10 +3639,10 @@
         <v>12</v>
       </c>
       <c r="J3">
-        <v>0.74343022700000005</v>
+        <v>1.313430227</v>
       </c>
       <c r="K3">
-        <v>4.4225534021541097</v>
+        <v>4.2800534021541097</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3653,10 +3653,10 @@
         <v>12</v>
       </c>
       <c r="J4">
-        <v>0.67359031999999996</v>
+        <v>1.7935903200000001</v>
       </c>
       <c r="K4">
-        <v>6.1247394063013703</v>
+        <v>5.84473940630137</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3667,10 +3667,10 @@
         <v>12</v>
       </c>
       <c r="J5">
-        <v>0.68590502600000003</v>
+        <v>1.795905026</v>
       </c>
       <c r="K5">
-        <v>6.1297525106232902</v>
+        <v>5.8522525106232903</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3681,10 +3681,10 @@
         <v>12</v>
       </c>
       <c r="J6">
-        <v>0.70547473900000002</v>
+        <v>1.8454747389999999</v>
       </c>
       <c r="K6">
-        <v>6.2988025481267096</v>
+        <v>6.0138025481267103</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3695,10 +3695,10 @@
         <v>12</v>
       </c>
       <c r="J7">
-        <v>0.84106831500000001</v>
+        <v>1.9210683150000001</v>
       </c>
       <c r="K7">
-        <v>6.5301164828938401</v>
+        <v>6.2601164828938396</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3709,10 +3709,10 @@
         <v>12</v>
       </c>
       <c r="J8">
-        <v>0.86961827599999997</v>
+        <v>1.959618276</v>
       </c>
       <c r="K8">
-        <v>6.66806803373973</v>
+        <v>6.39556803373973</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3723,10 +3723,10 @@
         <v>12</v>
       </c>
       <c r="J9">
-        <v>1.0599128920000001</v>
+        <v>1.8899128919999999</v>
       </c>
       <c r="K9">
-        <v>6.1942313660410999</v>
+        <v>5.9867313660411003</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3737,10 +3737,10 @@
         <v>12</v>
       </c>
       <c r="J10">
-        <v>1.3184400000000001</v>
+        <v>1.8584400000000001</v>
       </c>
       <c r="K10">
-        <v>5.6097489041095896</v>
+        <v>5.4747489041095898</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3751,10 +3751,10 @@
         <v>12</v>
       </c>
       <c r="J11">
-        <v>1.4540885374999999</v>
+        <v>1.8040885375</v>
       </c>
       <c r="K11">
-        <v>5.5192970437071898</v>
+        <v>5.4317970437071903</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3765,10 +3765,10 @@
         <v>12</v>
       </c>
       <c r="J12">
-        <v>1.5759468839999999</v>
+        <v>1.855946884</v>
       </c>
       <c r="K12">
-        <v>5.7690201283150699</v>
+        <v>5.6990201283150697</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3779,10 +3779,10 @@
         <v>12</v>
       </c>
       <c r="J13">
-        <v>1.8102267700000001</v>
+        <v>1.5402267700000001</v>
       </c>
       <c r="K13">
-        <v>4.6934789239383603</v>
+        <v>4.7609789239383602</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3793,10 +3793,10 @@
         <v>12</v>
       </c>
       <c r="J14">
-        <v>1.8996725544999999</v>
+        <v>1.5196725545000001</v>
       </c>
       <c r="K14">
-        <v>4.6467188476763699</v>
+        <v>4.7417188476763696</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3807,10 +3807,10 @@
         <v>12</v>
       </c>
       <c r="J15">
-        <v>2.0348422020000001</v>
+        <v>1.5548422019999999</v>
       </c>
       <c r="K15">
-        <v>4.7766853399109603</v>
+        <v>4.8966853399109596</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3821,10 +3821,10 @@
         <v>12</v>
       </c>
       <c r="J16">
-        <v>2.3461384664999998</v>
+        <v>1.0361384665</v>
       </c>
       <c r="K16">
-        <v>2.9659478491284199</v>
+        <v>3.29344784912842</v>
       </c>
       <c r="L16">
         <v>2015</v>

--- a/data/NP20versusRestIncomeTrendsMNA.xlsx
+++ b/data/NP20versusRestIncomeTrendsMNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04AB5148-1508-4B06-A8AA-7F4291E99CEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF8D6FE9-2BC4-440E-9016-0F465932799C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="8" activeTab="11" xr2:uid="{F79202DD-308F-45FF-9DE5-32B85DEA2E3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="8" activeTab="11" xr2:uid="{06B29D37-31B2-4542-938A-6E4F7B419CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Algeria" sheetId="2" r:id="rId1"/>
@@ -163,7 +163,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24EAC8F2-6F55-48E3-B14A-6C30C033E78E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5CC264-D2D1-44C5-9B5F-6D92388577A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -221,7 +221,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6870AB8E-6A7A-483E-A8C4-217A16CEA8B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E1791C-CE67-49DC-89D3-DF328858210F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -279,7 +279,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE7D91B-2BCF-40B4-8052-D8AE935659D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7940D901-A8E3-43FC-BA61-5FEBBFD102B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -337,7 +337,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B858A851-D8BF-406A-A8DE-9E45AAFE5E48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1500AAF5-802F-478D-B9C9-DDE437D562A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -395,7 +395,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E581C3-950E-43C9-A317-12E4599617DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1433BA1C-9F07-4647-9F5C-3B07089BDA48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -453,7 +453,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE74702-E06A-4D62-980D-CE7FCBE61D53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA8F708-062B-475A-AB19-A9FCBCE11D81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -511,7 +511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0793E11-B73F-42DF-9534-2CA22F707F33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794FC946-3740-4EB0-98D2-AF4FCE1C3354}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -569,7 +569,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F712E90B-A10E-4CC0-8433-B8D18BC9591C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C19E7B-2DDF-4336-9382-C57FA95BBC89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -627,7 +627,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F47289F-84C0-4892-8FBD-21E457C0DCCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D2C767-A3F5-40CB-83DF-64F2C80FBE94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -685,7 +685,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22A51FD-95E8-47F4-8269-2D34AA02151D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E81064-B814-47B9-BA47-250B7BC3F6A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,7 +743,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE76933-F413-4F2F-872A-3ED820EBFE61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABD03F7-FDD4-47D1-99E5-BF56ED93DA70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -801,7 +801,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DED164A-A871-4404-8EB7-622B81345B1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D63EC6-8BC8-4F84-A826-E7B320FF362D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919E4DFC-473F-49FC-AE6B-B2C77B39EC26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37821574-F21C-4D7E-A4DC-E3CA45F09980}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1373,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7D0603-1704-40B8-86AA-2C7A508BAD51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CAFFA2-3E6F-41C4-8FD2-2F54CD5994E2}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1569,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1451D8-96CA-4EEF-BB4A-2D894CFDCBD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F3443C-66E6-4C1C-B35C-BF3BCA08AE18}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1765,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDACEEC-BC30-413C-AE4D-29A8D5C093D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407702EA-7D78-4AAA-8F9A-EC39C7582BBB}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1933,7 +1933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D73DC7-40FE-4945-B254-A60D8F4ED824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE9FB89-96AD-4E32-B643-FAB6C4C75A16}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2171,7 +2171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531A925A-3C21-4477-9F45-32A46BACADE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB1783B-13FE-46FE-9471-91D074761E45}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2409,7 +2409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F24DF-85B3-4DE2-BFC9-59023B4146DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC99DB1-D795-4B36-B49B-3F1C6B99713D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2647,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77114A9C-B3B4-453D-8769-BBC63FAFD526}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC06B69-2F14-4082-B347-187BC8612C9C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2885,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2026D1-1974-431E-A8A1-B138BD320A4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DB6D53-4428-457B-9FF8-FC08043E621D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3123,7 +3123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331161AC-43AD-466D-AE51-4322CA4C9E98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E7930E-AF11-4DC5-9D00-FE669A16DC44}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3361,7 +3361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A097384C-4990-4FE7-AA4A-F6151E32927A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58C94AD-907E-46FF-BE78-0F58162AD9D1}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3599,7 +3599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D1943E-0443-460C-9E67-0A4DD18CEC59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B54DB4-FDCA-47B7-A205-E5F1F361DC6C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
